--- a/tutorials/tp_tracker_eval/results/11-26_model/summary_tp_best_11-26.pth.xlsx
+++ b/tutorials/tp_tracker_eval/results/11-26_model/summary_tp_best_11-26.pth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,62 +772,245 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>MOT16-10</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2818431648239279</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6623610693902072</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1790063321967852</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2687936353304108</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9945929708621207</v>
+      </c>
+      <c r="G6" t="n">
+        <v>54</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" t="n">
+        <v>38</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9007</v>
+      </c>
+      <c r="M6" t="n">
+        <v>57</v>
+      </c>
+      <c r="N6" t="n">
+        <v>148</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2627049845754181</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2400067149519249</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R6" t="n">
+        <v>31</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>MOT16-11</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5415525789980019</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8432818621802258</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3988445607150643</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4637017658600393</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9804102327725283</v>
+      </c>
+      <c r="G7" t="n">
+        <v>69</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27</v>
+      </c>
+      <c r="J7" t="n">
+        <v>38</v>
+      </c>
+      <c r="K7" t="n">
+        <v>85</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4920</v>
+      </c>
+      <c r="M7" t="n">
+        <v>29</v>
+      </c>
+      <c r="N7" t="n">
+        <v>53</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.4512753433616743</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2107865332621962</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>16</v>
+      </c>
+      <c r="R7" t="n">
+        <v>13</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MOT16-13</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1237307652046477</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6287234042553191</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06861720654824104</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.08533611981887844</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7819148936170213</v>
+      </c>
+      <c r="G8" t="n">
+        <v>106</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>95</v>
+      </c>
+      <c r="K8" t="n">
+        <v>205</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7878</v>
+      </c>
+      <c r="M8" t="n">
+        <v>22</v>
+      </c>
+      <c r="N8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.05898061070474858</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2495547362440981</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" t="n">
+        <v>14</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>OVERALL</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.318902963965072</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.752321083172147</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2023357436404307</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2627321437860896</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9768858800773694</v>
-      </c>
-      <c r="G6" t="n">
-        <v>285</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-      <c r="I6" t="n">
-        <v>95</v>
-      </c>
-      <c r="J6" t="n">
-        <v>181</v>
-      </c>
-      <c r="K6" t="n">
-        <v>478</v>
-      </c>
-      <c r="L6" t="n">
-        <v>56690</v>
-      </c>
-      <c r="M6" t="n">
-        <v>186</v>
-      </c>
-      <c r="N6" t="n">
-        <v>458</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.2540966550486397</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.2145012719164956</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>127</v>
-      </c>
-      <c r="R6" t="n">
-        <v>88</v>
-      </c>
-      <c r="S6" t="n">
-        <v>39</v>
+      <c r="B9" t="n">
+        <v>0.3230436218219173</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7516047527997815</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2057347402263615</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2663813004102919</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9731630701993991</v>
+      </c>
+      <c r="G9" t="n">
+        <v>514</v>
+      </c>
+      <c r="H9" t="n">
+        <v>17</v>
+      </c>
+      <c r="I9" t="n">
+        <v>145</v>
+      </c>
+      <c r="J9" t="n">
+        <v>352</v>
+      </c>
+      <c r="K9" t="n">
+        <v>786</v>
+      </c>
+      <c r="L9" t="n">
+        <v>78495</v>
+      </c>
+      <c r="M9" t="n">
+        <v>294</v>
+      </c>
+      <c r="N9" t="n">
+        <v>687</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.2562875594642841</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.2178136822714077</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>183</v>
+      </c>
+      <c r="R9" t="n">
+        <v>146</v>
+      </c>
+      <c r="S9" t="n">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
